--- a/CodePintails_NewEqn/Baseline1/network_inputs_juvenile_female.xlsx
+++ b/CodePintails_NewEqn/Baseline1/network_inputs_juvenile_female.xlsx
@@ -579,9 +579,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>34560</xdr:colOff>
+      <xdr:colOff>34200</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -590,8 +590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7550280" y="3062880"/>
-          <a:ext cx="1561320" cy="486000"/>
+          <a:off x="7435800" y="3062880"/>
+          <a:ext cx="1532520" cy="485640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -654,9 +654,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>585720</xdr:colOff>
+      <xdr:colOff>585360</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -665,8 +665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7510680" y="2379600"/>
-          <a:ext cx="1551960" cy="604080"/>
+          <a:off x="7396200" y="2379600"/>
+          <a:ext cx="1532880" cy="603720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -814,9 +814,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>349920</xdr:colOff>
+      <xdr:colOff>349560</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -825,8 +825,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7631640" y="2396160"/>
-          <a:ext cx="1423800" cy="489240"/>
+          <a:off x="7422120" y="2396160"/>
+          <a:ext cx="1385640" cy="488880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -894,9 +894,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>72360</xdr:colOff>
+      <xdr:colOff>72000</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -905,8 +905,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7571520" y="2398320"/>
-          <a:ext cx="1206360" cy="487440"/>
+          <a:off x="7362000" y="2398320"/>
+          <a:ext cx="1168200" cy="487080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -978,7 +978,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1048,14 +1048,15 @@
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+      <selection pane="topLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="16" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="16" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1147,7 +1148,7 @@
         <v>32</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,11 +1747,11 @@
       </c>
       <c r="F27" s="35" t="n">
         <f aca="false">2*$Q$2</f>
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G27" s="35" t="n">
         <f aca="false">2*$Q$2</f>
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="31"/>
@@ -1776,11 +1777,11 @@
       </c>
       <c r="F28" s="35" t="n">
         <f aca="false">2*$Q$2</f>
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G28" s="35" t="n">
         <f aca="false">2*$Q$2</f>
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="34"/>
@@ -1806,11 +1807,11 @@
       </c>
       <c r="F29" s="35" t="n">
         <f aca="false">2*$Q$2</f>
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G29" s="35" t="n">
         <f aca="false">2*$Q$2</f>
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="34"/>
@@ -2078,9 +2079,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1023" min="2" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1023" min="2" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3061,8 +3062,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
